--- a/medicine/Enfance/David_Levithan/David_Levithan.xlsx
+++ b/medicine/Enfance/David_Levithan/David_Levithan.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">David Levithan (né le 7 septembre 1972 à Millburn dans le New Jersey) est un écrivain américain. Ses romans pour adolescents sont souvent orientés vers l’homosexualité et les questions et conflits qui peuvent en résulter. Son premier livre Boy Meets Boy est publié en 2003[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">David Levithan (né le 7 septembre 1972 à Millburn dans le New Jersey) est un écrivain américain. Ses romans pour adolescents sont souvent orientés vers l’homosexualité et les questions et conflits qui peuvent en résulter. Son premier livre Boy Meets Boy est publié en 2003.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">David Levithan est né à Short Hills dans la ville de Milburn, dans une famille juive. Quand il a dix-neuf ans, il décroche un stage chez Scholastic, une maison d'édition pour la jeunesse, où il travaille sur la série Les Baby-Sitters.
 En 1999, il écrit la novélisation du film Dix Bonnes Raisons de te larguer. À partir de 2003, il commence à publier plusieurs romans pour adolescents. Depuis 2006, il a coécrit cinq romans avec Rachel Cohn. En 2010, il coécrit un roman avec l'auteur John Green.
